--- a/xlsx/宰相_intext.xlsx
+++ b/xlsx/宰相_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="477">
   <si>
     <t>宰相</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%B8%E4%BE%AF</t>
   </si>
   <si>
-    <t>諸侯</t>
+    <t>诸侯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E7%8E%8B</t>
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2</t>
   </si>
   <si>
-    <t>君主立憲</t>
+    <t>君主立宪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%90%86%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>總理大臣</t>
+    <t>总理大臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%9B%B8</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E9%9D%9E%E5%AD%90</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E4%BB%A3</t>
   </si>
   <si>
-    <t>漢代</t>
+    <t>汉代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2</t>
   </si>
   <si>
-    <t>漢</t>
+    <t>汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8B%E5%94%90</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%AE%8B</t>
   </si>
   <si>
-    <t>兩宋</t>
+    <t>两宋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%9C%9D</t>
   </si>
   <si>
-    <t>漢朝</t>
+    <t>汉朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%9B%BD</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8F%B8%E9%A6%AC</t>
   </si>
   <si>
-    <t>大司馬</t>
+    <t>大司马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E7%8C%AE%E5%B8%9D</t>
@@ -365,13 +365,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%A1%E7%B8%A3%E5%88%B6</t>
   </si>
   <si>
-    <t>郡縣制</t>
+    <t>郡县制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A1%E5%9C%8B%E5%88%B6</t>
   </si>
   <si>
-    <t>郡國制</t>
+    <t>郡国制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%9B%BD</t>
@@ -383,19 +383,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B1%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>中山國</t>
+    <t>中山国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>北海國</t>
+    <t>北海国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%99%E5%9C%8B</t>
   </si>
   <si>
-    <t>趙國</t>
+    <t>赵国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%AE%98</t>
   </si>
   <si>
-    <t>長官</t>
+    <t>长官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%B8%9D</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>王國</t>
+    <t>王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%AE%88</t>
@@ -509,9 +509,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E5%AE%98</t>
   </si>
   <si>
-    <t>长官</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8F%B2%E7%9C%81</t>
   </si>
   <si>
@@ -581,9 +578,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E6%9C%9D</t>
   </si>
   <si>
-    <t>汉朝</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%AD%90</t>
   </si>
   <si>
@@ -623,13 +617,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E5%83%95%E5%B0%84</t>
   </si>
   <si>
-    <t>左僕射</t>
+    <t>左仆射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E5%83%95%E5%B0%84</t>
   </si>
   <si>
-    <t>右僕射</t>
+    <t>右仆射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%96%E5%BA%B7</t>
@@ -653,19 +647,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E4%B8%AD%E6%9B%B8%E9%96%80%E4%B8%8B%E5%B9%B3%E7%AB%A0%E4%BA%8B</t>
   </si>
   <si>
-    <t>同中書門下平章事</t>
+    <t>同中书门下平章事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E9%81%93</t>
   </si>
   <si>
-    <t>乾道</t>
+    <t>干道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9B%B8%E7%9C%81</t>
   </si>
   <si>
-    <t>中書省</t>
+    <t>中书省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%A4%AA%E5%AD%90</t>
@@ -689,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%AD%E6%9B%B8%E7%9C%81</t>
   </si>
   <si>
-    <t>行中書省</t>
+    <t>行中书省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%9C%9D</t>
@@ -701,9 +695,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B9%A6%E7%9C%81</t>
   </si>
   <si>
-    <t>中书省</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E6%AD%A6</t>
   </si>
   <si>
@@ -719,13 +710,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3%E5%A4%A7%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>內閣大學士</t>
+    <t>内阁大学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>內閣</t>
+    <t>内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6%E5%A3%AB</t>
@@ -761,9 +752,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E9%98%81</t>
   </si>
   <si>
-    <t>内阁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E6%9C%BA%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
@@ -797,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D%E5%85%A7%E9%96%A3%E7%B8%BD%E7%90%86%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>清朝內閣總理大臣</t>
+    <t>清朝内阁总理大臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A3%E4%BB%BB%E5%86%85%E9%98%81</t>
@@ -809,9 +797,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%AD%A6%E5%B8%9D</t>
   </si>
   <si>
-    <t>漢武帝</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8B%E4%BB%A3</t>
   </si>
   <si>
@@ -851,21 +836,18 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%91%A8</t>
   </si>
   <si>
-    <t>東周</t>
+    <t>东周</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E5%AE%98</t>
   </si>
   <si>
-    <t>執政官</t>
+    <t>执政官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%A7%8B%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>春秋時期</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8D%BF</t>
   </si>
   <si>
@@ -893,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>戰國</t>
+    <t>战国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%89%AF%E9%80%A0</t>
@@ -911,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%BC%A2</t>
   </si>
   <si>
-    <t>西漢</t>
+    <t>西汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8F%B8%E7%A9%BA</t>
@@ -923,63 +905,48 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%BC%A2</t>
   </si>
   <si>
-    <t>東漢</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%9B%B8_(%E5%AE%98%E8%81%B7)</t>
   </si>
   <si>
-    <t>尚書 (官職)</t>
+    <t>尚书 (官职)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%9C%8B</t>
   </si>
   <si>
-    <t>三國</t>
+    <t>三国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%99%89</t>
   </si>
   <si>
-    <t>西晉</t>
+    <t>西晋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%9B%B8%E4%BB%A4</t>
   </si>
   <si>
-    <t>尚書令</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%9B%B8%E5%83%95%E5%B0%84</t>
   </si>
   <si>
-    <t>尚書僕射</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9B%B8%E4%BB%A4</t>
   </si>
   <si>
-    <t>中書令</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%99%89</t>
   </si>
   <si>
-    <t>東晉</t>
+    <t>东晋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E5%BF%A0_(%E5%8C%97%E6%9C%9D)</t>
   </si>
   <si>
-    <t>楊忠 (北朝)</t>
+    <t>杨忠 (北朝)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%9B%B8%E7%9C%81</t>
   </si>
   <si>
-    <t>尚書省</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%A4%AA%E5%AE%97</t>
   </si>
   <si>
@@ -989,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E8%82%85%E5%AE%97</t>
   </si>
   <si>
-    <t>唐肅宗</t>
+    <t>唐肃宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%B3%E5%BE%B7</t>
@@ -1013,37 +980,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E4%BB%A3%E5%8D%81%E5%9C%8B</t>
   </si>
   <si>
-    <t>五代十國</t>
+    <t>五代十国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%A2%81</t>
   </si>
   <si>
-    <t>後梁</t>
+    <t>后梁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%94%90</t>
   </si>
   <si>
-    <t>後唐</t>
+    <t>后唐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%99%89</t>
   </si>
   <si>
-    <t>後晉</t>
+    <t>后晋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%BC%A2</t>
   </si>
   <si>
-    <t>後漢</t>
+    <t>后汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%91%A8</t>
   </si>
   <si>
-    <t>後周</t>
+    <t>后周</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%A8%E5%90%B4</t>
@@ -1067,13 +1034,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E8%9C%80</t>
   </si>
   <si>
-    <t>後蜀</t>
+    <t>后蜀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%BC%A2</t>
   </si>
   <si>
-    <t>南漢</t>
+    <t>南汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%AE%8B</t>
@@ -1091,13 +1058,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E9%A4%A8</t>
   </si>
   <si>
-    <t>史館</t>
+    <t>史馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E8%B3%A2%E6%AE%BF%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>集賢殿書院</t>
+    <t>集贤殿书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B4%87%E6%96%87%E9%99%A2</t>
@@ -1133,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BC%E6%9C%9D</t>
   </si>
   <si>
-    <t>遼朝</t>
+    <t>辽朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9C%9D</t>
@@ -1157,25 +1124,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AE%BF%E9%96%A3%E5%A4%A7%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>殿閣大學士</t>
+    <t>殿阁大学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%A9%9F%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>軍機大臣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%A9%9F%E8%99%95</t>
   </si>
   <si>
-    <t>軍機處</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3%E7%B8%BD%E7%90%86%E5%A4%A7%E8%87%A3_(%E6%B8%85)</t>
   </si>
   <si>
-    <t>內閣總理大臣 (清)</t>
+    <t>内阁总理大臣 (清)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%8C%E5%AE%98</t>
@@ -1187,13 +1148,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%AE%B0%E7%9B%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中國宰相列表</t>
+    <t>中国宰相列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%BC%A2%E4%B8%9E%E7%9B%B8%E3%80%81%E7%9B%B8%E5%9C%8B%E3%80%81%E5%A4%A7%E5%8F%B8%E5%BE%92%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>西漢丞相、相國、大司徒列表</t>
+    <t>西汉丞相、相国、大司徒列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%9C%9D%E9%A6%96%E8%BE%85%E5%88%97%E8%A1%A8</t>
@@ -1211,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%AD%B0%E6%94%BF</t>
   </si>
   <si>
-    <t>領議政</t>
+    <t>领议政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E6%94%BF%E5%A4%A7%E8%87%A3</t>
@@ -1223,7 +1184,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E7%99%BD</t>
   </si>
   <si>
-    <t>關白</t>
+    <t>关白</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AB%E7%9B%B8</t>
@@ -1235,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%B6%AD%E9%BD%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>大維齊爾</t>
+    <t>大维齐尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%B8%AD%E5%9B%BD%E6%94%BF%E5%BA%9C%E9%A6%96%E8%84%91</t>
@@ -1253,9 +1214,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%84%91</t>
   </si>
   <si>
-    <t>政府首脑</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%A7%8B%E6%88%98%E5%9B%BD</t>
   </si>
   <si>
@@ -1313,9 +1271,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8F%B8%E9%A9%AC</t>
   </si>
   <si>
-    <t>大司马</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%B8%88</t>
   </si>
   <si>
@@ -1343,7 +1298,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B0%87%E8%BB%8D_(%E4%B8%AD%E5%9C%8B)</t>
   </si>
   <si>
-    <t>大將軍 (中國)</t>
+    <t>大将军 (中国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B9%E9%AD%8F</t>
@@ -1355,9 +1310,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E4%B9%A6_(%E5%AE%98%E8%81%8C)</t>
   </si>
   <si>
-    <t>尚书 (官职)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E4%B8%AD%E4%B9%A6%E9%97%A8%E4%B8%8B%E4%B8%89%E5%93%81</t>
   </si>
   <si>
@@ -1409,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%94%BF%E7%8E%8B%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>議政王大臣</t>
+    <t>议政王大臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D%E5%A4%A7%E5%AD%A6%E5%A3%AB%E5%88%97%E8%A1%A8</t>
@@ -1439,13 +1391,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中華民國政府首腦列表</t>
+    <t>中华民国政府首脑列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%8B%99%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>中華民國國務總理</t>
+    <t>中华民国国务总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
@@ -1457,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E9%99%A2%E9%95%B7</t>
   </si>
   <si>
-    <t>行政院院長</t>
+    <t>行政院院长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2</t>
@@ -1493,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%94%BF%E4%BA%8B%E5%A0%82%E5%9C%8B%E5%8B%99%E5%8D%BF</t>
   </si>
   <si>
-    <t>中華民國政事堂國務卿</t>
+    <t>中华民国政事堂国务卿</t>
   </si>
 </sst>
 </file>
@@ -4242,7 +4194,7 @@
         <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4268,10 +4220,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -4297,10 +4249,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -4326,10 +4278,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4355,10 +4307,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -4384,10 +4336,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>4</v>
@@ -4413,10 +4365,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4442,10 +4394,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4471,10 +4423,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4500,10 +4452,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>8</v>
@@ -4529,10 +4481,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4558,10 +4510,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>6</v>
@@ -4587,10 +4539,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4616,10 +4568,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4645,10 +4597,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4674,10 +4626,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4703,10 +4655,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -4732,10 +4684,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4761,10 +4713,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4790,10 +4742,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -4819,10 +4771,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>5</v>
@@ -4848,10 +4800,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4877,10 +4829,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4906,10 +4858,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4935,10 +4887,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -4964,10 +4916,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -4993,10 +4945,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>10</v>
@@ -5022,10 +4974,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5080,10 +5032,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -5109,10 +5061,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>53</v>
@@ -5138,10 +5090,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5167,10 +5119,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -5196,10 +5148,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G116" t="n">
         <v>6</v>
@@ -5225,10 +5177,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5254,10 +5206,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5283,10 +5235,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5312,10 +5264,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5341,10 +5293,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G121" t="n">
         <v>8</v>
@@ -5370,10 +5322,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -5399,10 +5351,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G123" t="n">
         <v>12</v>
@@ -5428,10 +5380,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5457,10 +5409,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5486,10 +5438,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="G126" t="n">
         <v>7</v>
@@ -5515,10 +5467,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>6</v>
@@ -5544,10 +5496,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>15</v>
@@ -5573,10 +5525,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5602,10 +5554,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5631,10 +5583,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5660,10 +5612,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5689,10 +5641,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5718,10 +5670,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5776,10 +5728,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5805,10 +5757,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5834,10 +5786,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>5</v>
@@ -5863,10 +5815,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>4</v>
@@ -5892,10 +5844,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5921,10 +5873,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5950,10 +5902,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5979,10 +5931,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6008,10 +5960,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>70</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -6037,10 +5989,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6066,10 +6018,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6095,10 +6047,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6124,10 +6076,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -6153,10 +6105,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6182,10 +6134,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6211,10 +6163,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>8</v>
@@ -6240,10 +6192,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6269,10 +6221,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6298,10 +6250,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>94</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6327,10 +6279,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G155" t="n">
         <v>34</v>
@@ -6356,10 +6308,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6385,10 +6337,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6443,10 +6395,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>154</v>
       </c>
       <c r="G159" t="n">
         <v>8</v>
@@ -6472,10 +6424,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="G160" t="n">
         <v>5</v>
@@ -6501,10 +6453,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="G161" t="n">
         <v>6</v>
@@ -6530,10 +6482,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6588,10 +6540,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6617,10 +6569,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>171</v>
       </c>
       <c r="G165" t="n">
         <v>7</v>
@@ -6646,10 +6598,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>168</v>
+      </c>
+      <c r="F166" t="s">
         <v>169</v>
-      </c>
-      <c r="F166" t="s">
-        <v>170</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6675,10 +6627,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6704,10 +6656,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F168" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G168" t="n">
         <v>41</v>
@@ -6733,10 +6685,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6762,10 +6714,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6791,10 +6743,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -6820,10 +6772,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6849,10 +6801,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6878,10 +6830,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6907,10 +6859,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6936,10 +6888,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6965,10 +6917,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6994,10 +6946,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7023,10 +6975,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7052,10 +7004,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7081,10 +7033,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7110,10 +7062,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7139,10 +7091,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7168,10 +7120,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7197,10 +7149,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -7226,10 +7178,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G186" t="n">
         <v>10</v>
@@ -7255,10 +7207,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G187" t="n">
         <v>9</v>
@@ -7284,10 +7236,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7313,10 +7265,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F189" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7342,10 +7294,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F190" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7371,10 +7323,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F191" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7400,10 +7352,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7429,10 +7381,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7458,10 +7410,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F194" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7487,10 +7439,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F195" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7516,10 +7468,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7545,10 +7497,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F197" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G197" t="n">
         <v>6</v>
@@ -7603,10 +7555,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F199" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -7632,10 +7584,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F200" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7661,10 +7613,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F201" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7690,10 +7642,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F202" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7719,10 +7671,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F203" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7748,10 +7700,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F204" t="s">
-        <v>382</v>
+        <v>246</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -7777,10 +7729,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F205" t="s">
-        <v>384</v>
+        <v>243</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7806,10 +7758,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F206" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7835,10 +7787,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F207" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7864,10 +7816,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F208" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7893,10 +7845,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="F209" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7922,10 +7874,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="F210" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7951,10 +7903,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="F211" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7980,10 +7932,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="F212" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8009,10 +7961,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F213" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8038,10 +7990,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F214" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8067,10 +8019,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F215" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8096,10 +8048,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="F216" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8125,10 +8077,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="F217" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="G217" t="n">
         <v>6</v>
@@ -8154,10 +8106,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="F218" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="G218" t="n">
         <v>5</v>
@@ -8183,10 +8135,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="F219" t="s">
-        <v>412</v>
+        <v>12</v>
       </c>
       <c r="G219" t="n">
         <v>3</v>
@@ -8212,10 +8164,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F220" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="G220" t="n">
         <v>4</v>
@@ -8241,10 +8193,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="F221" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8270,10 +8222,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="F222" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8299,10 +8251,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="F223" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8328,10 +8280,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="F224" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8357,10 +8309,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="F225" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8386,10 +8338,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="F226" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8415,10 +8367,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="F227" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8444,10 +8396,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="F228" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -8473,10 +8425,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F229" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8502,10 +8454,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F230" t="s">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="G230" t="n">
         <v>8</v>
@@ -8531,10 +8483,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="F231" t="s">
-        <v>432</v>
+        <v>104</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8560,10 +8512,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="F232" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8589,10 +8541,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F233" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8618,10 +8570,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F234" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -8647,10 +8599,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="F235" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -8676,10 +8628,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="F236" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8705,10 +8657,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="F237" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -8734,10 +8686,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="F238" t="s">
-        <v>446</v>
+        <v>297</v>
       </c>
       <c r="G238" t="n">
         <v>25</v>
@@ -8763,10 +8715,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="F239" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="G239" t="n">
         <v>3</v>
@@ -8792,10 +8744,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="F240" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G240" t="n">
         <v>7</v>
@@ -8821,10 +8773,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="F241" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -8850,10 +8802,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="F242" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8879,10 +8831,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F243" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8908,10 +8860,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="F244" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8937,10 +8889,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F245" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8966,10 +8918,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="F246" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="G246" t="n">
         <v>5</v>
@@ -8995,10 +8947,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="F247" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9024,10 +8976,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="F248" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9053,10 +9005,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="F249" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="G249" t="n">
         <v>21</v>
@@ -9082,10 +9034,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="F250" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9111,10 +9063,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="F251" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9140,10 +9092,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="F252" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9169,10 +9121,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F253" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9198,10 +9150,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="F254" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9227,10 +9179,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="F255" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9256,10 +9208,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="F256" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="G256" t="n">
         <v>3</v>
@@ -9285,10 +9237,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="F257" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9314,10 +9266,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="F258" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -9343,10 +9295,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="F259" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9372,10 +9324,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="F260" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9401,10 +9353,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="F261" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9430,10 +9382,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="F262" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9459,10 +9411,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="F263" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9488,10 +9440,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="F264" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>

--- a/xlsx/宰相_intext.xlsx
+++ b/xlsx/宰相_intext.xlsx
@@ -29,7 +29,7 @@
     <t>古代中国</t>
   </si>
   <si>
-    <t>政策_政策_管理_宰相</t>
+    <t>体育运动_体育运动_宦官_宰相</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
